--- a/Excel/auth_64/main/03/s05/cmn.xlsx
+++ b/Excel/auth_64/main/03/s05/cmn.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
   <si>
     <t>OFFSET</t>
   </si>
@@ -48,6 +48,9 @@
     <t>Does he now?</t>
   </si>
   <si>
+    <t>Ele agora?</t>
+  </si>
+  <si>
     <t>Hey.</t>
   </si>
   <si>
@@ -57,7 +60,7 @@
     <t>Who do you think you are, calling an\nofficer's meeting at your own discretion?</t>
   </si>
   <si>
-    <t>Quem você acha que é chamando um\nencontro de oficiais no seu próprio critério?</t>
+    <t>Quem você acha que é organizando um\nencontro de oficiais no seu próprio critério?</t>
   </si>
   <si>
     <t>Nishikiyama.</t>
@@ -102,13 +105,13 @@
     <t>Hey. If you're pulling this outta your ass...</t>
   </si>
   <si>
-    <t>Ei. Se você estiver tirando isso do seu rabo...</t>
+    <t>Ei. Se você tiver inventando histórinha...</t>
   </si>
   <si>
     <t>Your pinky ain't all I'm gonna cut off.</t>
   </si>
   <si>
-    <t>Seu mindinho não vai ser a única coisa que eu vou cortar.</t>
+    <t>Não é só o seu mindinho que eu vou cortar.</t>
   </si>
   <si>
     <t>Third Chairman?</t>
@@ -228,11 +231,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -475,7 +481,7 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -486,7 +492,7 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -497,7 +503,7 @@
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -508,8 +514,8 @@
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -517,10 +523,10 @@
         <v>220212.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -528,10 +534,10 @@
         <v>220484.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -539,10 +545,10 @@
         <v>220756.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +556,10 @@
         <v>221028.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +567,10 @@
         <v>221300.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="2" t="s">
         <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11">
@@ -572,10 +578,10 @@
         <v>221572.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12">
@@ -583,10 +589,10 @@
         <v>221844.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13">
@@ -594,10 +600,10 @@
         <v>222116.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="2" t="s">
         <v>24</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14">
@@ -605,10 +611,10 @@
         <v>222388.0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="2" t="s">
         <v>26</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15">
@@ -616,10 +622,10 @@
         <v>222660.0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="2" t="s">
         <v>28</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="16">
@@ -627,10 +633,10 @@
         <v>222932.0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="2" t="s">
         <v>30</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
@@ -638,10 +644,10 @@
         <v>223204.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="2" t="s">
         <v>32</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18">
@@ -649,10 +655,10 @@
         <v>223476.0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="2" t="s">
         <v>34</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19">
@@ -660,10 +666,10 @@
         <v>223748.0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20">
@@ -671,10 +677,10 @@
         <v>224020.0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="2" t="s">
         <v>37</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
@@ -682,10 +688,10 @@
         <v>224292.0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="2" t="s">
         <v>39</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
@@ -693,10 +699,10 @@
         <v>224564.0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="2" t="s">
         <v>41</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
@@ -704,10 +710,10 @@
         <v>224836.0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
@@ -715,10 +721,10 @@
         <v>225108.0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="2" t="s">
         <v>45</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
@@ -726,10 +732,10 @@
         <v>225380.0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="2" t="s">
         <v>47</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
@@ -737,10 +743,10 @@
         <v>225652.0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="2" t="s">
         <v>49</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
@@ -748,10 +754,10 @@
         <v>225924.0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="2" t="s">
         <v>51</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
@@ -759,10 +765,10 @@
         <v>226196.0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="2" t="s">
         <v>53</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
@@ -770,10 +776,10 @@
         <v>226468.0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="2" t="s">
         <v>55</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
@@ -781,10 +787,10 @@
         <v>226740.0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="2" t="s">
         <v>57</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
@@ -792,10 +798,10 @@
         <v>227012.0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="2" t="s">
         <v>59</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1"/>
